--- a/biology/Zoologie/Bulbul_moustac/Bulbul_moustac.xlsx
+++ b/biology/Zoologie/Bulbul_moustac/Bulbul_moustac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bleda syndactylus
 Le Bulbul moustac (Bleda syndactylus) est une espèce de passereau de la famille des Pycnonotidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve en Angola, Bénin, Cameroun, République centrafricaine, République du Congo, République démocratique du Congo, Côte d'Ivoire, Gabon, Ghana, Guinée, Guinée équatoriale, Kenya, Libéria, Nigeria, Ouganda, Sierra Leone, Soudan, Tanzanie et Zambie.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les forêts humides tropicales en plaine ou en montagne et les zones de broussailles humides tropicales.
 </t>
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il en existe 3 sous-espèces :
 Bleda syndactylus syndactylus  (Swainson, 1837)
